--- a/pred_ohlcv/54_21/2019-10-28 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 RNT ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>1000098.7239</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>997323.1039</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>997323.1039</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>997323.1039</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>941867.4506</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>941867.4506</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>936339.8905999999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>948669.6520999999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>948669.6520999999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>949976.9706999999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>949986.9706999999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>947082.9706999999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>947094.5122999999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>944104.5122999999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>6534709.693201018</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>6860773.536201018</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>6416725.067601018</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>6071301.935901018</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>6807402.839301018</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>5899016.704867685</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>12551357.26341199</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>12342956.91191198</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>13039450.70901198</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>13530243.28465604</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>12249904.92475604</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>13698018.83125604</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>13584462.16575604</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>13903318.53725604</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>13565554.15885604</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>13131653.19425604</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>13496442.42255604</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>14043079.00085604</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>13546918.89175604</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>13100164.04845604</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>13612830.96365604</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>13926988.30420829</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>13836610.90080829</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>14249848.86324465</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>14184381.15344465</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14286497.18674465</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>14254169.50478102</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>14348016.77338102</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>14164090.10978102</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13485923.83828101</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>12574455.51668102</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>12574455.51668102</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>12211503.94882897</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>11634228.75052897</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>12946810.03674354</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>13629219.94034354</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>12666233.17431927</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>12354647.84921927</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>12493095.10451927</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>12528192.65666985</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>11992362.05966985</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>12047708.87776985</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>11695908.54916985</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>11822786.21916985</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>11727258.28536985</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>11671348.76036984</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>11430594.30116984</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>10573989.35586984</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>10573989.35586984</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>11262894.10416984</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>11144570.52606984</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11455052.21746984</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>11455052.21746984</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>11807156.50283359</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>11738486.99013359</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>11738486.99013359</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>11738486.99013359</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>11738486.99013359</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>11913659.47193359</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>11913659.47193359</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>12270397.62923359</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>12203015.58383359</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>12203015.58383359</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>12203015.58383359</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>12203015.58383359</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>12254054.27573359</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>12254054.27573359</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>12358976.28563359</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>12358894.83193359</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>12734284.19343359</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>13108288.50053359</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>13698704.19433359</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>13385960.67873359</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>13065162.89403359</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>13002951.61763359</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>13002981.61763359</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>12565268.74533359</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>13545818.51403359</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>13182236.65923359</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>12735442.99473359</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>12824378.45553358</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>12837898.87553358</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>12701186.35283358</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>12498050.85613358</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>12498050.85613358</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>12417056.26223358</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>12602129.62403358</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>12600574.48013358</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>12572789.99153358</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>12467414.50483358</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 RNT ohlcv.xlsx
@@ -6372,7 +6372,7 @@
         <v>6534709.693201018</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>6860773.536201018</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>6416725.067601018</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>6071301.935901018</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>6807402.839301018</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>5899016.704867685</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>12342956.91191198</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>13039450.70901198</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>13530243.28465604</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>12909533.63475604</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>12249904.92475604</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>13698018.83125604</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>13584462.16575604</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>13903318.53725604</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>13565554.15885604</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>13131653.19425604</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>13496442.42255604</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>14043079.00085604</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>13571490.13755604</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>13546918.89175604</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>13100164.04845604</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>13612830.96365604</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>13926988.30420829</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>13836610.90080829</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>14249848.86324465</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>14184381.15344465</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14286497.18674465</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>14254169.50478102</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>14348052.74338102</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>14348016.77338102</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>14164090.10978102</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13485923.83828101</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>12574455.51668102</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>12574455.51668102</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>12211503.94882897</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>11634228.75052897</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>11344578.9624724</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>13454151.89854354</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>12946810.03674354</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>13629219.94034354</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>12885882.78114915</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>12825413.72704916</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>12666233.17431927</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>11992362.05966985</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>12047708.87776985</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>11695908.54916985</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>11822786.21916985</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>11727258.28536985</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>11671348.76036984</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>13385960.67873359</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>13065162.89403359</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>13002951.61763359</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>13002981.61763359</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>12565268.74533359</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>13306393.12803359</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>13182236.65923359</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>12735442.99473359</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>12824378.45553358</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
